--- a/Verlage.xlsx
+++ b/Verlage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\ubuntu-dbsm\home\dbsm\projekte\inhaltsverzeichnis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sickerti\Projekte\inhaltsverzeichnis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Reise Know-How Verlag Peter Rump GmbH</t>
   </si>
@@ -48,6 +48,36 @@
   </si>
   <si>
     <t>Verlag</t>
+  </si>
+  <si>
+    <t>Droste Verlag GmbH</t>
+  </si>
+  <si>
+    <t>Gerstenberg</t>
+  </si>
+  <si>
+    <t>Michael Müller Verlag GmbH</t>
+  </si>
+  <si>
+    <t>Societäts-Verlag</t>
+  </si>
+  <si>
+    <t>Bundesanstalt für Agrarwirtschaft und Bergbauernfragen</t>
+  </si>
+  <si>
+    <t>Lars Bäuerle</t>
+  </si>
+  <si>
+    <t>Wilhelmshaven Touristik &amp; Freizeit GmbH</t>
+  </si>
+  <si>
+    <t>Hueber Verlag</t>
+  </si>
+  <si>
+    <t>DIN Media GmbH</t>
+  </si>
+  <si>
+    <t>HERDT</t>
   </si>
 </sst>
 </file>
@@ -364,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D23"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -412,6 +442,56 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Verlage.xlsx
+++ b/Verlage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Reise Know-How Verlag Peter Rump GmbH</t>
   </si>
@@ -78,6 +78,72 @@
   </si>
   <si>
     <t>HERDT</t>
+  </si>
+  <si>
+    <t>Feldhaus</t>
+  </si>
+  <si>
+    <t>Westermann</t>
+  </si>
+  <si>
+    <t>westermann</t>
+  </si>
+  <si>
+    <t>Cornelsen</t>
+  </si>
+  <si>
+    <t>Wiley VCH</t>
+  </si>
+  <si>
+    <t>Rheinwerk Verlag GmbH</t>
+  </si>
+  <si>
+    <t>Rheinwerk Verlag</t>
+  </si>
+  <si>
+    <t>Durchblicker Lernstudio Arndt</t>
+  </si>
+  <si>
+    <t>Markt + Technik Verlag</t>
+  </si>
+  <si>
+    <t>Erich Schmidt Verlag</t>
+  </si>
+  <si>
+    <t>Reguvis</t>
+  </si>
+  <si>
+    <t>Gmeiner</t>
+  </si>
+  <si>
+    <t>Emons Verlag</t>
+  </si>
+  <si>
+    <t>Bruckmann</t>
+  </si>
+  <si>
+    <t>Motorbuch Verlag</t>
+  </si>
+  <si>
+    <t>LexisNexis</t>
+  </si>
+  <si>
+    <t>Jonglez Verlag</t>
+  </si>
+  <si>
+    <t>DBB Verlag GmbH</t>
+  </si>
+  <si>
+    <t>Europa-Lehrmittel</t>
+  </si>
+  <si>
+    <t>Droste Verlag</t>
+  </si>
+  <si>
+    <t>Verlag Magische Welt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDW </t>
   </si>
 </sst>
 </file>
@@ -394,102 +460,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
